--- a/resources/Part_3_Statistics/S15_L86/2.9.Variance-exercise.xlsx
+++ b/resources/Part_3_Statistics/S15_L86/2.9.Variance-exercise.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iliya\Desktop\Statistics for Data Science and Business Analysis\Filming\Final excel\Section 2 - Descriptive statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\GitRepos\StatisticsBAandDS\DataScienceBootcamp\resources\Part_3_Statistics\S15_L86\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Variance" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Mean</t>
   </si>
@@ -61,15 +61,30 @@
   </si>
   <si>
     <t>You have the annual personal income of 11 people from the USA. You have the mean income from the exercise on mean, median and mode</t>
+  </si>
+  <si>
+    <t>Task 1:</t>
+  </si>
+  <si>
+    <t>Task 2:</t>
+  </si>
+  <si>
+    <t>Task 3:</t>
+  </si>
+  <si>
+    <t>There is a wide variation in salary.</t>
+  </si>
+  <si>
+    <t>Sample, since we have 11 from the whole set of "People from the USA receiving a personal income"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\²\ * #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\²\ * #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -146,7 +161,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -156,22 +171,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,42 +498,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="2:9" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -526,7 +541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -534,7 +549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -542,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
@@ -550,13 +565,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="2:9" ht="12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
     </row>
-    <row r="11" spans="2:9" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -574,18 +589,37 @@
       <c r="B12" s="5">
         <v>62000</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:9" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>64000</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1">
+        <f>_xlfn.VAR.S(B12:B22)</f>
+        <v>133433409536.36362</v>
+      </c>
       <c r="F13" s="11"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="2:9" ht="12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>49000</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="7"/>
@@ -597,13 +631,13 @@
         <v>324000</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>1264000</v>
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="2:4" ht="12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>54330</v>
       </c>
@@ -633,7 +667,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>53000</v>
       </c>
